--- a/biology/Botanique/Stephanodiscaceae/Stephanodiscaceae.xlsx
+++ b/biology/Botanique/Stephanodiscaceae/Stephanodiscaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Stephanodiscaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Stephanodiscales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Stephanodiscus, dérivé du grec στέφω / stépho, couronne, et de δισκος / diskos, disque, en référence à la forme de la diatomée.
 </t>
@@ -542,14 +556,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres que renferme cette famille se présentent sous la forme de cellules solitaires, souvent réunies en chaînes filiformes compactes.
 Les frustules[note 1] sont cylindriques basses à hautes, munies de ceintures intercalaires.
-Les valves[1] sont rondes, rarement elliptiques, ondulées tangentiellement ou concentriquement, avec des rayons ou des alvéoles hyalines. Les aréoles[2] sont loculaires, marquées extérieurement de petits trous, mais intérieurement d'un tamis forniciforme[note 2] ;  elles sont disposées en séries radiales uniques ou bi-quinquesériées[note 3] près du bord, fasciculées ou éparses, séparées par un rayon hyalin, une épine distincte ou par un espace tuberculé rugueux.
+Les valves sont rondes, rarement elliptiques, ondulées tangentiellement ou concentriquement, avec des rayons ou des alvéoles hyalines. Les aréoles sont loculaires, marquées extérieurement de petits trous, mais intérieurement d'un tamis forniciforme[note 2] ;  elles sont disposées en séries radiales uniques ou bi-quinquesériées[note 3] près du bord, fasciculées ou éparses, séparées par un rayon hyalin, une épine distincte ou par un espace tuberculé rugueux.
 Les structures sont différentes au centre et à la périphérie, rarement identiques.
 Les bordures alvéolées sont soit de structure différente de celle de la face antérieure de la valve, soit exalvéolé, c'est-à-dire de structure similaire à celle de la valve.
-La fultoportula[note 4],[3], unique et robuste, commence au centre des valves puis se dispose en forme d'anneau sur la frustule ; la rimoportula[4] est généralement unique (rarement plusieurs), située sur le bord ou sur la costa[5] de l'alvéole[6].
+La fultoportula[note 4] unique et robuste, commence au centre des valves puis se dispose en forme d'anneau sur la frustule ; la rimoportula est généralement unique (rarement plusieurs), située sur le bord ou sur la costa de l'alvéole.
 			Stephanodiscus hantzschii'en microscopie optique.
 			Stephanodiscus hantzschii(« diatomée gâteau »)en microscopie électronique.
 			Stephanodiscus alpinus.
@@ -583,6 +599,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,9 +626,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (18 août 2022)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (18 août 2022) :
 Brevisira Krammer, 2001
 Concentrodiscus G.C.Khursevich, A.I.Moisseeva &amp; G.A.Sukhova, 1989
 Crateriportula Flower &amp; Håkansson, 1994
@@ -622,7 +642,7 @@
 Cyclotubicoalitus Stoermer, E.F.Kociolek &amp; W.Cody, 1990
 Dimidialimbus H.Tanaka &amp; T.Nagumo, 2013
 Discotella V.Houk &amp; R.Klee, 2004
-Edtheriotia Kociolek, Q.M.You, Stepanek, R.L.Lowe et Q-X. Wang,, 2016
+Edtheriotia Kociolek, Q.M.You, Stepanek, R.L.Lowe et Q-X. Wang 2016
 Handmannia M.Peragallo, 1913
 Hemistephanos H.Tanaka &amp; R.Klee, 2014
 Lindavia (Schütt) De Toni &amp; Forti, 1900
@@ -670,9 +690,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stephanodiscaceae Makarova, 1986[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Stephanodiscaceae Makarova, 1986.
 </t>
         </is>
       </c>
@@ -701,7 +723,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(ru + la) Z.I. Glezer et I.V. Makarova, 1986, « [New order and family of diatoms (bBacillariophyta)] ». Botanicheskii Zhurnal, vol. 71, n. 5, p. 673–676</t>
         </is>
